--- a/data/trans_dic/P16A05-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A05-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P16A05-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A05-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,38%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,56%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0,59%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,38%</t>
         </is>
       </c>
     </row>
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>0,0; 1,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>0,18; 1,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>0,0; 1,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,42 +744,42 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>1,19; 4,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>0,23; 2,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>0,92; 4,03</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>0,0; 4,33</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0,77; 2,27</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>0,33; 1,36</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>0,58; 2,37</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>0,0; 2,36</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,81%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>1,03; 3,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>1,32; 4,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>1,0; 3,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>0,51; 3,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>0,81; 2,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>1,35; 4,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>1,5; 4,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>1,03; 4,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>1,13; 2,64</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>1,6; 3,51</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>1,48; 3,06</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>1,03; 3,13</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,22%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0,57; 2,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>1,78; 4,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>1,84; 4,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>2,09; 5,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>2,61; 5,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>4,09; 7,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>3,98; 7,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>3,55; 6,73</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>1,92; 3,74</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>3,3; 5,64</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>3,23; 5,39</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>3,21; 5,33</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,9%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,86%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,73%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,82%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,52%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,63%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>1,63; 4,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>2,76; 6,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>2,66; 5,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>4,35; 8,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>4,8; 9,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>6,58; 11,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>5,63; 10,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>6,91; 12,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>3,61; 6,48</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>5,12; 8,15</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>4,61; 7,33</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>6,18; 9,58</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,7%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,75%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,17%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,41%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,78%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,08%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>2,62; 6,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>1,98; 5,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>4,29; 8,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>4,26; 7,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>5,42; 10,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>7,96; 14,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>10,18; 16,61</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>10,19; 14,49</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>4,65; 8,0</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>5,63; 9,31</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>7,98; 11,85</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>7,85; 10,5</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,55%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,24%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,38%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,87%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,72%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,15%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,9%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>4,09; 8,12</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>4,29; 9,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>3,38; 6,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>5,1; 8,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>7,43; 12,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>10,01; 14,92</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>10,08; 15,08</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>9,73; 16,4</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>6,55; 9,54</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>8,05; 11,45</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>7,47; 10,84</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>8,61; 12,32</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,64%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,62%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,11; 3,2</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,66; 4,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,94; 4,19</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>3,81; 5,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,53; 6,08</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>6,26; 8,1</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>6,78; 8,59</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>7,61; 9,55</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>3,49; 4,43</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>4,75; 5,93</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>5,0; 6,15</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>6,07; 7,26</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A05-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A05-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>0,36%</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,33</t>
+          <t>0,0; 4,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,36</t>
+          <t>0,0; 2,21</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>1,66%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,51; 3,7</t>
+          <t>0,54; 3,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,03; 4,31</t>
+          <t>0,72; 3,55</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,03; 3,13</t>
+          <t>0,92; 2,92</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>4,2%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,09; 5,64</t>
+          <t>2,06; 5,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,55; 6,73</t>
+          <t>3,57; 6,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,21; 5,33</t>
+          <t>3,21; 5,31</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>4,92%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8,82%</t>
+          <t>8,28%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>7,63%</t>
+          <t>6,42%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,35; 8,79</t>
+          <t>1,96; 7,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,91; 12,16</t>
+          <t>6,34; 11,04</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,18; 9,58</t>
+          <t>3,92; 8,14</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>12,41%</t>
+          <t>12,32%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>9,08%</t>
+          <t>8,99%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,26; 7,74</t>
+          <t>4,16; 7,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,19; 14,49</t>
+          <t>10,16; 14,38</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,85; 10,5</t>
+          <t>7,75; 10,4</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,8%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>5,08%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>9,55%</t>
+          <t>10,87%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>12,24%</t>
+          <t>10,89%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>12,38%</t>
+          <t>12,54%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>13,87%</t>
+          <t>8,94%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>8,15%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>9,72%</t>
+          <t>8,27%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>9,15%</t>
+          <t>8,53%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>10,9%</t>
+          <t>7,49%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,09; 8,12</t>
+          <t>2,93; 8,12</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,29; 9,05</t>
+          <t>2,98; 8,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,38; 6,74</t>
+          <t>2,21; 6,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,1; 8,42</t>
+          <t>3,46; 7,19</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,43; 12,08</t>
+          <t>8,0; 14,59</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>10,01; 14,92</t>
+          <t>7,98; 14,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>10,08; 15,08</t>
+          <t>9,38; 16,32</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>9,73; 16,4</t>
+          <t>3,54; 14,1</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>6,55; 9,54</t>
+          <t>6,29; 10,44</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>8,05; 11,45</t>
+          <t>6,21; 10,7</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>7,47; 10,84</t>
+          <t>6,55; 11,19</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>8,61; 12,32</t>
+          <t>3,43; 9,85</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>6,96%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>7,77%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>8,18%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>8,18%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>13,47%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>7,64%</t>
+          <t>12,22%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>8,55%</t>
+          <t>16,74%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>11,23%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>9,81%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>13,32%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>3,98; 11,08</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>4,57; 12,66</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>3,65; 9,44</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>5,9; 10,97</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>5,44; 11,77</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>9,91; 17,59</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>8,8; 16,55</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>14,16; 19,69</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>5,56; 10,5</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>8,73; 14,1</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>7,44; 12,54</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>11,43; 15,23</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2,58%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3,36%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>3,48%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>4,1%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>5,33%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>7,13%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>7,64%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>7,95%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>3,98%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>5,28%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>5,6%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>6,08%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>2,11; 3,2</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>2,66; 4,05</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>2,94; 4,19</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>3,81; 5,23</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>3,16; 4,86</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>4,53; 6,08</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>6,26; 8,1</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>6,78; 8,59</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>7,61; 9,55</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>6,52; 9,0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>3,49; 4,43</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>4,75; 5,93</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>5,0; 6,15</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>6,07; 7,26</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>5,23; 6,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P16A05-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A05-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,17 +725,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,33</t>
+          <t>0,0; 1,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,7</t>
+          <t>0,18; 1,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,94</t>
+          <t>0,0; 2,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,42 +745,42 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,19; 4,2</t>
+          <t>1,26; 4,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,29</t>
+          <t>0,23; 2,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,92; 4,03</t>
+          <t>1,01; 4,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,34</t>
+          <t>0,0; 4,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,77; 2,27</t>
+          <t>0,81; 2,35</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,33; 1,36</t>
+          <t>0,31; 1,46</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,37</t>
+          <t>0,66; 2,48</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,21</t>
+          <t>0,0; 1,78</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,03; 3,03</t>
+          <t>0,98; 2,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,32; 4,19</t>
+          <t>1,26; 3,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 3,19</t>
+          <t>1,01; 3,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,54; 3,8</t>
+          <t>0,43; 3,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,96</t>
+          <t>0,8; 2,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,35; 4,11</t>
+          <t>1,39; 4,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,5; 4,22</t>
+          <t>1,5; 4,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,72; 3,55</t>
+          <t>0,67; 3,56</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,13; 2,64</t>
+          <t>1,14; 2,54</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,6; 3,51</t>
+          <t>1,6; 3,73</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,48; 3,06</t>
+          <t>1,46; 3,11</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,92; 2,92</t>
+          <t>0,85; 2,86</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,57; 2,45</t>
+          <t>0,59; 2,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,78; 4,87</t>
+          <t>1,76; 4,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,84; 4,81</t>
+          <t>1,77; 4,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,06; 5,53</t>
+          <t>2,02; 5,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,61; 5,56</t>
+          <t>2,53; 5,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,09; 7,58</t>
+          <t>4,29; 7,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,98; 7,62</t>
+          <t>3,92; 7,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,57; 6,74</t>
+          <t>3,61; 6,84</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,92; 3,74</t>
+          <t>1,91; 3,72</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,3; 5,64</t>
+          <t>3,27; 5,65</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,23; 5,39</t>
+          <t>3,21; 5,39</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,21; 5,31</t>
+          <t>3,2; 5,51</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,63; 4,89</t>
+          <t>1,77; 4,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,76; 6,31</t>
+          <t>2,72; 6,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,66; 5,81</t>
+          <t>2,69; 6,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,96; 7,76</t>
+          <t>1,84; 7,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,8; 9,08</t>
+          <t>4,9; 9,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,58; 11,45</t>
+          <t>6,56; 11,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,63; 10,21</t>
+          <t>5,7; 10,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,34; 11,04</t>
+          <t>6,49; 11,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,61; 6,48</t>
+          <t>3,71; 6,48</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,12; 8,15</t>
+          <t>5,11; 8,13</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,61; 7,33</t>
+          <t>4,6; 7,25</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,92; 8,14</t>
+          <t>3,65; 8,26</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,62; 6,83</t>
+          <t>2,47; 7,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,98; 5,67</t>
+          <t>1,97; 5,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,29; 8,83</t>
+          <t>4,08; 8,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,16; 7,61</t>
+          <t>4,28; 7,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,42; 10,75</t>
+          <t>5,38; 10,68</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,96; 14,06</t>
+          <t>8,16; 14,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,18; 16,61</t>
+          <t>10,25; 16,74</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,16; 14,38</t>
+          <t>10,37; 14,67</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,65; 8,0</t>
+          <t>4,41; 7,84</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5,63; 9,31</t>
+          <t>5,69; 9,01</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7,98; 11,85</t>
+          <t>7,99; 12,03</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,75; 10,4</t>
+          <t>7,68; 10,35</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,93; 8,12</t>
+          <t>3,01; 8,02</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,98; 8,94</t>
+          <t>2,93; 8,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,21; 6,74</t>
+          <t>2,29; 6,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,46; 7,19</t>
+          <t>3,42; 7,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,0; 14,59</t>
+          <t>7,95; 14,26</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,98; 14,67</t>
+          <t>8,29; 14,92</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,38; 16,32</t>
+          <t>9,57; 16,25</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,54; 14,1</t>
+          <t>3,56; 14,12</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>6,29; 10,44</t>
+          <t>6,27; 10,33</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>6,21; 10,7</t>
+          <t>6,38; 10,95</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>6,55; 11,19</t>
+          <t>6,61; 10,75</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>3,43; 9,85</t>
+          <t>4,18; 10,12</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,98; 11,08</t>
+          <t>3,99; 10,81</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,57; 12,66</t>
+          <t>4,41; 13,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,65; 9,44</t>
+          <t>3,59; 9,19</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,9; 10,97</t>
+          <t>5,83; 11,16</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,44; 11,77</t>
+          <t>5,28; 11,51</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>9,91; 17,59</t>
+          <t>10,32; 17,27</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,8; 16,55</t>
+          <t>9,09; 16,1</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>14,16; 19,69</t>
+          <t>14,19; 19,4</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,56; 10,5</t>
+          <t>5,63; 10,23</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>8,73; 14,1</t>
+          <t>8,68; 14,2</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>7,44; 12,54</t>
+          <t>7,44; 12,38</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>11,43; 15,23</t>
+          <t>11,55; 15,27</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,11; 3,2</t>
+          <t>2,08; 3,21</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,66; 4,05</t>
+          <t>2,71; 4,02</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,94; 4,19</t>
+          <t>2,96; 4,24</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,16; 4,86</t>
+          <t>3,21; 4,9</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,53; 6,08</t>
+          <t>4,61; 6,14</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>6,26; 8,1</t>
+          <t>6,35; 8,0</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,78; 8,59</t>
+          <t>6,72; 8,55</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>6,52; 9,0</t>
+          <t>6,33; 8,89</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3,49; 4,43</t>
+          <t>3,54; 4,54</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>4,75; 5,93</t>
+          <t>4,73; 5,89</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>5,0; 6,15</t>
+          <t>5,02; 6,15</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>5,23; 6,77</t>
+          <t>5,29; 6,77</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido tranquilizantes en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1856</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2522</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2459</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>11439</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>3906</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>8292</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>2536</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>13295</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>6429</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>10752</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>2536</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6452</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>815; 6775</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 8381</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4435</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>5881; 19257</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>992; 9742</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>4011; 16153</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 13119</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>7812; 22563</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2767; 12852</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>5395; 20236</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 12726</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>13091</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>16238</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>10954</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>6080</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>10188</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>15177</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>14122</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>9428</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>23278</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>31414</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>25076</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>15509</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>7177; 21560</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>8680; 27390</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>5946; 19277</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1806; 16350</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>5002; 18012</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>8455; 25186</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>8429; 23057</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>3440; 18232</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>15536; 34576</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>20698; 48280</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>16901; 35866</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>7922; 26757</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>8439</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>19893</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>19604</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>17928</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>27202</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>40652</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>36370</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>27350</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>35642</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>60546</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>55974</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>45278</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3793; 16278</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>11950; 31696</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>11874; 30691</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>10855; 27943</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>17424; 39061</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>30338; 55860</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>25923; 48756</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>19580; 37095</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>25386; 49398</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>45350; 78400</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>42679; 71683</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>34553; 59452</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>15544</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>25695</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>26312</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>43667</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>35569</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>54395</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>50151</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>59039</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>51114</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>80090</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>76464</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>102705</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>9202; 25321</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>16714; 38083</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>17389; 38821</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>16362; 68149</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>25267; 47295</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>40318; 69654</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>36982; 66694</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>46295; 78593</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>38343; 67041</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>62847; 99854</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>59568; 93854</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>58363; 132255</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>16490</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>14704</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>29864</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>32229</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>31119</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>48145</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>65451</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>67068</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>47609</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>62849</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>95315</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>99298</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>9546; 27077</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>8434; 23306</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>19491; 42579</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>24000; 44747</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>21736; 43151</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>36546; 63090</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>50906; 83152</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>56428; 79835</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>34902; 61997</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>49825; 78916</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>77874; 117304</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>84872; 114288</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>14528</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>16389</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>13381</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>18720</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>37291</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>38452</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>47389</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>54402</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>51820</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>54841</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>60770</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>73122</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>8799; 23454</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>9066; 27546</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>7666; 22299</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>12601; 26102</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>27264; 48893</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>29273; 52661</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>36146; 61378</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>21632; 85926</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>39820; 65633</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>42269; 72579</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>47103; 76583</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>40833; 98861</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>14603</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>19344</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>15591</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>23089</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>27329</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>52084</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>48881</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>71063</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>41932</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>71428</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>64471</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>94153</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>8382; 22681</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>10994; 33131</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>9234; 23613</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>16465; 31488</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>17635; 38421</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>39931; 66781</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>36392; 64443</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>60201; 82332</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>30602; 55616</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>55189; 90309</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>48918; 81353</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>81641; 107886</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>511</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>359</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>678</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>84552</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>114785</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>118165</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>141714</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>180138</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>252812</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>270657</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>290887</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>264690</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>367597</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>388822</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>432601</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>68210; 105061</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>92671; 137543</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>100365; 144005</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>111138; 169391</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>155861; 207406</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>225291; 283634</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>238343; 303133</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>231360; 325044</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>235596; 301929</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>329798; 410502</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>348475; 426976</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>376179; 481945</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>